--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_17-30.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_17-30.xlsx
@@ -83,6 +83,12 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>DECLOPHEN 100MG 5 SUPP</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -129,9 +135,6 @@
   </si>
   <si>
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>6:0</t>
   </si>
   <si>
     <t>KETOLAC 10MG 20 TAB</t>
@@ -1111,11 +1114,11 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1137,11 +1140,11 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1157,13 +1160,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1175,7 +1178,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1183,13 +1186,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1201,7 +1204,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1209,13 +1212,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1227,7 +1230,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1235,17 +1238,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1253,7 +1256,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1261,17 +1264,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1279,7 +1282,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1287,13 +1290,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1319,7 +1322,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1345,11 +1348,11 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1371,11 +1374,11 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1391,17 +1394,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1417,17 +1420,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1443,13 +1446,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1469,17 +1472,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>-72.5</v>
+        <v>38</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1495,17 +1498,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>350</v>
+        <v>-72.5</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1527,7 +1530,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>36.5</v>
+        <v>350</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1547,13 +1550,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>35</v>
+        <v>36.5</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1573,17 +1576,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1599,17 +1602,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1617,7 +1620,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1625,17 +1628,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1651,17 +1654,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1669,7 +1672,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1677,17 +1680,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1703,17 +1706,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1729,17 +1732,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1755,13 +1758,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>28.199999999999999</v>
+        <v>23</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1773,7 +1776,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1781,13 +1784,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>23</v>
+        <v>28.199999999999999</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1799,7 +1802,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1807,17 +1810,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1833,13 +1836,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1865,11 +1868,11 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1885,17 +1888,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1903,7 +1906,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1911,17 +1914,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1929,7 +1932,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1937,17 +1940,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1955,7 +1958,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1963,7 +1966,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -1981,7 +1984,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1989,13 +1992,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2015,13 +2018,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2033,7 +2036,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2041,17 +2044,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>11.67</v>
+        <v>20</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2059,7 +2062,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2067,17 +2070,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>12</v>
+        <v>11.67</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2085,7 +2088,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2093,17 +2096,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2119,7 +2122,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -2129,7 +2132,7 @@
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2137,7 +2140,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2145,17 +2148,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>133.65000000000001</v>
+        <v>20</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2171,17 +2174,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>15</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2197,13 +2200,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2215,7 +2218,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2223,13 +2226,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2249,13 +2252,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2275,7 +2278,7 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
@@ -2301,51 +2304,77 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" ht="25.5" customHeight="1">
+      <c r="A60" s="6">
+        <v>57</v>
+      </c>
+      <c t="s" r="B60" s="7">
+        <v>90</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c t="s" r="H60" s="8">
+        <v>29</v>
+      </c>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="9">
+        <v>80</v>
+      </c>
+      <c r="M60" s="9"/>
+      <c t="s" r="N60" s="7">
         <v>17</v>
       </c>
     </row>
-    <row r="60" ht="26.25" customHeight="1">
-      <c r="K60" s="10">
-        <v>2885.02</v>
-      </c>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="11">
-        <v>90</v>
-      </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c t="s" r="F61" s="12">
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="K61" s="10">
+        <v>2906.02</v>
+      </c>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="11">
         <v>91</v>
       </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="13"/>
-      <c t="s" r="I61" s="14">
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c t="s" r="F62" s="12">
         <v>92</v>
       </c>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="13"/>
+      <c t="s" r="I62" s="14">
+        <v>93</v>
+      </c>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="179">
+  <mergeCells count="182">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2521,10 +2550,13 @@
     <mergeCell ref="B59:G59"/>
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="I61:N61"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="I62:N62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
